--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_5.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_5.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cluster_5" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cluster_5_WF" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3109,4 +3110,8475 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B845"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>发送</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>表情</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>无法</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>图片</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>聊天</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>公告</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>评论</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>文件</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>帖子</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>没有</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>群</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>系统</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>语音</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>进行</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>查看</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>界面</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>播放</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>上传</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>不能</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>选择</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>群聊</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>声音</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>只能</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>出现</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>好友</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>软件</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>回复</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>音乐</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>文字</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>正确</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>添加</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>设置</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>提示</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>消息</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>群组</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>复制</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>预期</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>进入</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>发现</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>并未</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>编辑</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>发布</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>新</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>错误</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>不符</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>自动</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>接收</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>页面</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>输入框</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>提供</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>杰伦</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>应用</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>照片</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>限制</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>发</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>预览</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>打开</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>看到</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>缺陷</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>－</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>＞</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>最新</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>杰迷</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>粘贴</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>设计</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>大量</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>旅游</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>按钮</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>展示</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>重新</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>相册</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>部分</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>聊天记录</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>音量</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>表情符号</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>处理</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>执行</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>过程</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>想要</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>图标</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>之前</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>遇到</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>情况</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>修改</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>下载</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>当前</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>流量</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>返回</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>具体来说</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>不便</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>滑动</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>造成</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>严重</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>正在</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>提示信息</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>攻略</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>楼</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>自带</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>期望</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>收藏</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>退出</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>字数</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>缺少</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>屏幕</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>应该</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>支付</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>满意度</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>特别</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>完整</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>周杰伦</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>试图</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>不同</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>拍照</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>听</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>一定</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>格式</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>保存</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>长</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>共享</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>收到</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>播放器</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>超过</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>查找</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>必须</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>明显</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>文本框</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>输入法</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>成员</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>一致</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>定位</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>多行</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>阅读</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>增加</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>确认</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>加入</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>楼层</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>创建</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>位置</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>头像</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>暂停</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>网易</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>云</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>产生</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>不到</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>消耗</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>后缀名</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>听到</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>外放</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>视频</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>模式</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>框中</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>跳转</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>切换</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>调节</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>数字</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>完全</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>空格</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>额外</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>请求</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>存储</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>刷新</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>jayme</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>选项</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>框</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>分享</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>界面显示</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>更</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>群里</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>相关</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>反馈</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>意味着</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>标记</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>是否</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>感到</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>手写</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>数</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>明确</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>获取</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>困惑</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>楼主</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>转换</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>重现</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>困扰</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>最后</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>难以</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>极大</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>刚才</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>发表</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>出</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>速度</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>发出</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>权限</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>告知</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>每次</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>拒绝</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>无效</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>实现</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>左右</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>浏览</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>应用程序</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>完毕</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>历史</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>覆盖</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>故障</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>具体表现</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>负面影响</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>违反</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>app</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>提醒</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>数据</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>听筒</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>转发</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>点赞</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>互动</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>比较</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>红色</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>群主</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>禁言</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>相机</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>符合</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>冲突</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>具体</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>jay</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>主页</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>群名</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>方式</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>包含</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>附</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>通知</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>加载</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>付款</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>详情</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>前</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>给出</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>相反</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>wifi</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>清晰</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>小视频</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>准确</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>效果</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>一次</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>混乱</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>快速</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>空白</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>多次</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>txt</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>上限</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>数据传输</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>活动</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>顺序</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>停止</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>没</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>不佳</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>复制粘贴</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>窗口</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>界面设计</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>传送</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>拍摄</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>忽略</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>闪退</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>对应</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>双向</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>接受</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>大小</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>卸载</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>继续</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>概率</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>一系列</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>叠加</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>演唱会</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>复杂</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>特定</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>铃声</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>样式</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>舒服</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>费用</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>一张</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>发帖子</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>仅仅</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>粉丝</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>列表</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>不会</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>回帖</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>･</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>๑</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>新闻</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>简介</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>支持</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>崩溃</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>相应</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>听见</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>文件传输</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>未能</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>用户界面</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>设备</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>看清</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>均</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>通常</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>运行</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>跟贴</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>媒体</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>不知不觉</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>非</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>附近</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>米</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>呈现</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>表明</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>仅</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>范围</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>软件测试</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>一框</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>外出</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>变得</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>方便</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>原有</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>站</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>邀请</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>内部</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>结束</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>交流</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>降低</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>文本</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>过多时</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>行为</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>有限</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>取消</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>整个</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>笑</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>哭</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>盒子</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>右上角</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>接收者</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>以下</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>准备</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>无论是</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>里</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>右侧</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>同一个</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>电脑</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>相同</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>惠州</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>框里</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>迷</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>首页</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>却是</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>一组</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>丢失</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>键入</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>搜狗</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>原图</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>同一</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>张</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>一次性</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>未</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>动图</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>回到</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>跟帖</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>希望</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>动态</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>包括</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>调整</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>带来</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>键</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>歌曲</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>达到</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>完</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>滚动</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>再次</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>刚刚</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>背景</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>先</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>框内</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>关闭</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>后台</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>改善</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>强迫症</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>逐级</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>不可</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>存储设备</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>长时间</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>掩盖</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>上方</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>圈</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>重叠</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>过长</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>九张</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>小花</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>放大</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>送花</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>花字</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>文本格式</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>记录</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>访问</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>发货</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>按住</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>商品</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>购买</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>网页</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>辨识</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>按会</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>后长</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>微博中</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>区分</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>顶部</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>小时</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>一键</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>微博后</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>往下</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>右下角</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>音频</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>有点</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>需</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>手写输入</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>最大</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>原</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>允许</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>现象</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>其他软件</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>依旧</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>实际上</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>必现</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>调</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>大型</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>看出</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>宣传片</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>中途</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>程度</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>轻</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>突然</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>更改</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>不必要</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>干扰</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>比较慢</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>保持</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>传图</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>咨询</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>感觉</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>警告</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>主题</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>下降</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>地址</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>文件大小</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>难看</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>活动性</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>创</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>之间</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>加强</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>建议</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>稳定</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>杰粉</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>特色</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>至少</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>一项</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>现场</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>两人</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>追寻</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>有利于</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>相近</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>货到付款</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>栏</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>一串</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>要求</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>依赖性</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>地方</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>类似</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>相悖</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>重要</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>过去</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>一点</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>操作过程</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>贴</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>倒序</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>回顾过去</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>总数</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>计入</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>误以为</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>反映</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>立刻</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>报告</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>减小</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>延迟</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>多层</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>文本编辑</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>正确处理</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>错过</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>带有</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>最新更新</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>高亮</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>尾数</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>底部</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>花费</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>精力</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>内供</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>频率</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>环境</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>尤其</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>出去</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>缺乏</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>四行</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>选定</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>别扭</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>不耐烦</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>看不到</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>订单</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>下方</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>存入</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>发帖</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>踢</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>t恤</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>qq</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>黑色</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>激活码</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>最多</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>多渠道</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>字体</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>颜色</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>匹配</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>银行卡</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>一种</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>某种</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>非正常</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>背景色</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>感兴趣</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>支付宝</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>忘记</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>常理</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>立即</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>等待时间</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>创建者</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>表示</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>框上</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>太低</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>需求</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>意识</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>寻找</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>板块</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>暗示着</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>第一个</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>复制到</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>框后</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>变化</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>生成</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>直观</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>标志</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>变为</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>符号</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>增大</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>原始</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>配置文件</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>紊乱</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>途径</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>标准</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>能够</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>转化</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>接听</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>当群</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>风险</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>损失</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>无奈</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>多样性</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>表达</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>个性化</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>引导</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>预设</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>区域</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>自定义</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>一行</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>最近</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>对话框</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>频繁</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>阻止</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>超长</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>第二步</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>加号</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>任意</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>面板</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>第一步</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>纠正</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>电话</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>排列成</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>群号码</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>鼻子</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>眼睛</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>特征</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>面部</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>组成</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>黄色</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>仅能</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>听歌</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>正</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>前提条件</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>阻碍</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>群有</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>查询</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>字体大小</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>原先</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>编写</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>规则</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>社交互动</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>同意</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>歌会</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>图集</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>格式文件</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>一条</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>下图</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>保留</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>方</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>sh</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>拍好</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>单独</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>混淆</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>当有</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>区</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>能力</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>优质</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>鼠标</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>需用</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>enter</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>昵称</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>数值</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>单个</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>静态</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>收藏夹</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>时会</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>不断</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>原位</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>换行符</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>黑屏</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>屏幕显示</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>涂鸦</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>赞</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>识别</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>操作步骤</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>提到</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>稳定感</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>视觉</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>不整</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>堆叠</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>小点</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>及时</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>得知</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>较慢</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>最末端</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>移</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>向下</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>移至</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>位于</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>机制</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>误解</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>逻辑</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>交互</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>常规</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>清空</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>向上</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>我要</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>易用性</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>失真</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>精确</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>失效</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>复选框</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>功能性</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>这层</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>奇怪的是</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>更为</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>以前</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>多长时间</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>每层</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>活跃度</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>嘴巴</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>取而代之</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>卡中</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>只能靠</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>utf</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>经检测</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>兼容性</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>操作系统</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>x86</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>版本</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>os</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>remix</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>省略</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>两行</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>最终</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>卡顿</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>缺失</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>回车</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>找到</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>好消息</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>年轻</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>四种</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>少</t>
+        </is>
+      </c>
+      <c r="B741" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>重进</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>消失</t>
+        </is>
+      </c>
+      <c r="B743" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>一直</t>
+        </is>
+      </c>
+      <c r="B744" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>之后</t>
+        </is>
+      </c>
+      <c r="B745" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>过多</t>
+        </is>
+      </c>
+      <c r="B746" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>以后</t>
+        </is>
+      </c>
+      <c r="B747" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>重新启动</t>
+        </is>
+      </c>
+      <c r="B748" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="B749" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>字符</t>
+        </is>
+      </c>
+      <c r="B750" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>删去</t>
+        </is>
+      </c>
+      <c r="B751" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>原本</t>
+        </is>
+      </c>
+      <c r="B752" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>事件</t>
+        </is>
+      </c>
+      <c r="B753" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="B754" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>内存</t>
+        </is>
+      </c>
+      <c r="B755" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>全黑</t>
+        </is>
+      </c>
+      <c r="B756" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>解除</t>
+        </is>
+      </c>
+      <c r="B757" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>重登</t>
+        </is>
+      </c>
+      <c r="B758" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>慢</t>
+        </is>
+      </c>
+      <c r="B759" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>非常</t>
+        </is>
+      </c>
+      <c r="B760" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>网络</t>
+        </is>
+      </c>
+      <c r="B761" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>4g</t>
+        </is>
+      </c>
+      <c r="B762" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>100m</t>
+        </is>
+      </c>
+      <c r="B763" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>显著</t>
+        </is>
+      </c>
+      <c r="B764" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>方面</t>
+        </is>
+      </c>
+      <c r="B765" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>读取</t>
+        </is>
+      </c>
+      <c r="B766" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>发生</t>
+        </is>
+      </c>
+      <c r="B767" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>remixos</t>
+        </is>
+      </c>
+      <c r="B768" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>方法</t>
+        </is>
+      </c>
+      <c r="B769" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>唯一</t>
+        </is>
+      </c>
+      <c r="B770" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>噪音</t>
+        </is>
+      </c>
+      <c r="B771" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>简直</t>
+        </is>
+      </c>
+      <c r="B772" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>十分</t>
+        </is>
+      </c>
+      <c r="B773" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>几首</t>
+        </is>
+      </c>
+      <c r="B774" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>一首歌</t>
+        </is>
+      </c>
+      <c r="B775" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>播放歌曲</t>
+        </is>
+      </c>
+      <c r="B776" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>相当严重</t>
+        </is>
+      </c>
+      <c r="B777" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>详细</t>
+        </is>
+      </c>
+      <c r="B778" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>如群</t>
+        </is>
+      </c>
+      <c r="B779" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>平台</t>
+        </is>
+      </c>
+      <c r="B780" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="B781" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>´</t>
+        </is>
+      </c>
+      <c r="B782" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>ᴗ</t>
+        </is>
+      </c>
+      <c r="B783" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>`</t>
+        </is>
+      </c>
+      <c r="B784" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>书籍</t>
+        </is>
+      </c>
+      <c r="B785" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>焦虑</t>
+        </is>
+      </c>
+      <c r="B786" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>不确定性</t>
+        </is>
+      </c>
+      <c r="B787" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>判断</t>
+        </is>
+      </c>
+      <c r="B788" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>填写</t>
+        </is>
+      </c>
+      <c r="B789" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>键盘</t>
+        </is>
+      </c>
+      <c r="B790" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>取代</t>
+        </is>
+      </c>
+      <c r="B791" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>多个</t>
+        </is>
+      </c>
+      <c r="B792" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>一群</t>
+        </is>
+      </c>
+      <c r="B793" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>有效性</t>
+        </is>
+      </c>
+      <c r="B794" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>验证</t>
+        </is>
+      </c>
+      <c r="B795" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>应</t>
+        </is>
+      </c>
+      <c r="B796" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>后缀</t>
+        </is>
+      </c>
+      <c r="B797" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>扩展名</t>
+        </is>
+      </c>
+      <c r="B798" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>提示音</t>
+        </is>
+      </c>
+      <c r="B799" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
+      <c r="B800" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>静音</t>
+        </is>
+      </c>
+      <c r="B801" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>只开</t>
+        </is>
+      </c>
+      <c r="B802" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>开启</t>
+        </is>
+      </c>
+      <c r="B803" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>发送给</t>
+        </is>
+      </c>
+      <c r="B804" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>转变成</t>
+        </is>
+      </c>
+      <c r="B805" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>字会</t>
+        </is>
+      </c>
+      <c r="B806" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>多余</t>
+        </is>
+      </c>
+      <c r="B807" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>值</t>
+        </is>
+      </c>
+      <c r="B808" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>发送信息</t>
+        </is>
+      </c>
+      <c r="B809" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>基础</t>
+        </is>
+      </c>
+      <c r="B810" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>原来</t>
+        </is>
+      </c>
+      <c r="B811" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>应用软件</t>
+        </is>
+      </c>
+      <c r="B812" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>转到</t>
+        </is>
+      </c>
+      <c r="B813" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>感</t>
+        </is>
+      </c>
+      <c r="B814" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>相对</t>
+        </is>
+      </c>
+      <c r="B815" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>相比</t>
+        </is>
+      </c>
+      <c r="B816" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>常见</t>
+        </is>
+      </c>
+      <c r="B817" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>试听</t>
+        </is>
+      </c>
+      <c r="B818" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>作品</t>
+        </is>
+      </c>
+      <c r="B819" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>演艺</t>
+        </is>
+      </c>
+      <c r="B820" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>仍会</t>
+        </is>
+      </c>
+      <c r="B821" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>入群</t>
+        </is>
+      </c>
+      <c r="B822" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>这一</t>
+        </is>
+      </c>
+      <c r="B823" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>无此</t>
+        </is>
+      </c>
+      <c r="B824" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>具有</t>
+        </is>
+      </c>
+      <c r="B825" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>目前</t>
+        </is>
+      </c>
+      <c r="B826" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>限定</t>
+        </is>
+      </c>
+      <c r="B827" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>杂音</t>
+        </is>
+      </c>
+      <c r="B828" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>一对</t>
+        </is>
+      </c>
+      <c r="B829" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>总是</t>
+        </is>
+      </c>
+      <c r="B830" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>助手</t>
+        </is>
+      </c>
+      <c r="B831" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>来往</t>
+        </is>
+      </c>
+      <c r="B832" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>后面</t>
+        </is>
+      </c>
+      <c r="B833" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>截断</t>
+        </is>
+      </c>
+      <c r="B834" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>长度</t>
+        </is>
+      </c>
+      <c r="B835" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>打开方式</t>
+        </is>
+      </c>
+      <c r="B836" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>类型</t>
+        </is>
+      </c>
+      <c r="B837" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>so</t>
+        </is>
+      </c>
+      <c r="B838" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>算是</t>
+        </is>
+      </c>
+      <c r="B839" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>裁剪</t>
+        </is>
+      </c>
+      <c r="B840" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>长宽</t>
+        </is>
+      </c>
+      <c r="B841" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>麻烦</t>
+        </is>
+      </c>
+      <c r="B842" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>滑</t>
+        </is>
+      </c>
+      <c r="B843" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>红包</t>
+        </is>
+      </c>
+      <c r="B844" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>仍然</t>
+        </is>
+      </c>
+      <c r="B845" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_5.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_5.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,691 +437,1071 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>severity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recurrent</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>result</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>processed_result</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>10010000007455</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>不正常退出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>图片中的书籍堆叠不整，造成视觉上的混乱和不稳定感。</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>图片 书籍 堆叠 不整 造成 视觉 混乱 稳定感</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10010000009769</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>图片显示了一个在线支付界面，但问题描述仅提到“仅仅在线支付”，没有提供具体的支付信息或操作步骤。因此，无法从图片中直接识别出任何与问题描述相关的bug。</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>图片 在线 支付 界面 仅 提到 仅仅 在线 支付 没有 提供 具体 支付 信息 操作步骤 无法 图片 识别 出 相关</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10010000007453</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>问题描述：用户在查看信息、回复帖子或回复回帖时，无法正确使用“@我的”和“赞我的”功能。</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>查看 信息 回复 帖子 回复 回帖 无法 正确 @ 赞</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10010000009492</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>群里的语音、图片、手写和涂鸦功能均正常，但屏幕显示为黑屏。</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>群里 语音 图片 手写 涂鸦 均 正常 屏幕显示 黑屏</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10010000007962</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>问题描述：用户在输入框中输入换行符后，界面显示异常。图片描述：输入框内显示为空白，没有文字内容。</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>输入框 输入 换行符 界面显示 异常 图片 输入框 空白 没有 文字 内容</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10010000008416</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>不正常退出</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>图片显示了一个在线支付界面，但问题描述仅提到“仅仅在线支付”，没有提供具体的支付信息或操作步骤。因此，无法从图片中直接识别出任何与问题描述相关的bug。</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>图片 在线 支付 界面 仅 提到 仅仅 在线 支付 没有 提供 具体 支付 信息 操作步骤 无法 图片 识别 出 相关</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>功能不完整</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>问题描述：用户在查看信息、回复帖子或回复回帖时，无法正确使用“@我的”和“赞我的”功能。</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>查看 信息 回复 帖子 回复 回帖 无法 正确 @ 赞</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>群里的语音、图片、手写和涂鸦功能均正常，但屏幕显示为黑屏。</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>群里 语音 图片 手写 涂鸦 均 正常 屏幕显示 黑屏</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>性能</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>问题描述：用户在输入框中输入换行符后，界面显示异常。图片描述：输入框内显示为空白，没有文字内容。</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>输入框 输入 换行符 界面显示 异常 图片 输入框 空白 没有 文字 内容</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>用户体验</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>不断在聊天框复制粘贴表情，复制表情到30 个以上时会有一定概率应用出现闪退。</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>不断 聊天 框 复制粘贴 表情 复制 表情 30   时会 一定 概率 应用 出现 闪退</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10010000008518</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>不正常退出</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>在群聊中，用户无法收藏发送的表情，并且无法通过长按将本地表情保存到收藏夹。此外，静态表情列表中也不显示已收藏的本地表情。</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>群聊 无法 收藏 发送 表情 无法 长 表情 保存 收藏夹 静态 表情 列表 收藏 表情</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10010000008517</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>不正常退出</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>聊天框内单个复制表情时，当数量达到一定数值时，软件会闪退</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>聊天 框内 单个 复制 表情 数量 达到 一定 数值 软件 闪退</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10010000008791</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>不正常退出</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>在朋友中,点击好友,输入好友昵称,添加好友,输入聊天内容。
 预期结果:输入完毕后按enter键发送
 实际结果:输入完文字后,需用鼠标点击发送按钮才可以发送</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>朋友 , 点击 好友 , 输入 好友 昵称 , 添加 好友 , 输入 聊天 内容 
  预期 : 输入 完毕 enter 键 发送 
  : 输入 完 文字 , 需用 鼠标 点击 发送 按钮 发送</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>不正常退出</t>
-        </is>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>10010000007622</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>这个问题描述了一个软件的bug，具体表现为用户在“最新动态”和个人动态里可以看到他们发的帖子，但是无法转发这些帖子。无论是别人发的还是用户自己发的帖子，都只能评论和点赞，不能进行转发或收藏。这限制了用户分享和保存优质内容的能力，可能会影响用户的使用体验。</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>软件 具体表现 最新 动态 个人 动态 里 看到 发 帖子 无法 转发 帖子 无论是 发 发 帖子 只能 评论 点赞 不能 进行 转发 收藏 限制 分享 保存 优质 内容 能力</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10010000007626</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>在杰迷吧的帖子评论区进行互动时，用户反馈了以下问题：首先，当有新消息时，右上角的消息盒子没有显示红色小点作为提示，使得用户无法及时得知新的信息更新。其次，当用户对自己发的帖子进行评论时，系统错误地将该评论标记为“楼主评论”，这与正常的评论行为不符。最后，当用户返回到帖子的最新页面时，他们刚才发表的评论并没有被显示出来，同时评论的刷新速度较慢，需要点击评论框才能看到之前发表的评论内容。这些问题可能会影响用户的使用体验，降低他们在杰迷吧上的活跃度和满意度。</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>杰迷 帖子 评论 区 进行 互动 反馈 以下 当有 新 消息 右上角 消息 盒子 没有 红色 小点 提示 无法 及时 得知 新 信息 更新 发 帖子 进行 评论 系统 错误 评论 标记 楼主 评论 正常 评论 行为 不符 最后 返回 帖子 最新 页面 刚才 发表 评论 没有 评论 刷新 速度 较慢 点击 评论 框 看到 之前 发表 评论 内容 降低 杰迷 活跃度 满意度</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10010000007641</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>在杰迷吧-消息盒子-最新中，当用户查看已经评论的帖子时，显示的信息不完整。具体来说，每层楼主的评论信息只显示了评论是多长时间以前进行的，但没有提供具体的日期和时间。此外，当用户点击“更多”查看其他评论时，也没有展示回复的具体时间。更为奇怪的是，其他用户对这层楼主的回复只能进行评论，而不能进行点赞等其他互动操作。</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>杰迷 - 消息 盒子 - 最新 查看 评论 帖子 信息 完整 具体来说 每层 楼主 评论 信息 评论 多长时间 以前 进行 没有 提供 具体 日期 时间 点击 更 查看 评论 没有 展示 回复 具体 时间 更为 奇怪的是 这层 楼主 回复 只能 进行 评论 不能 进行 点赞 互动</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10010000007644</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>该软件在最新的帖子评论功能中存在严重的功能性缺陷。当用户尝试对帖子进行评论并且内容包含图片时，无法正常使用系统的相机功能来选择和上传图片。首先，在选择图片时的复选框功能异常，不能正确标记已选择的图片或未选择的图片，这导致用户无法一次性选择多张图片。其次，长按图片进行选择的功能也失效了，这使得用户无法精确地选择他们想要上传的图片部分。最后，评论界面缺少一个“原图”选项，这导致上传的图片可能会失真，影响用户的使用体验。这些问题严重影响了该软件的易用性和用户满意度。</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>最新 帖子 评论 严重 功能性 缺陷 帖子 进行 评论 内容 包含 图片 无法 正常 系统 相机 选择 上传 图片 选择 图片 复选框 异常 不能 正确 标记 选择 图片 未 选择 图片 无法 一次性 选择 张 图片 长 图片 进行 选择 失效 无法 精确 选择 想要 上传 图片 部分 最后 评论 界面 缺少 原图 选项 上传 图片 失真 严重 易用性 满意度</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10010000007649</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>该软件存在一个界面显示的bug。在JayMe首页进入Jay迷吧后，用户在查看有关惠州站演唱会的帖子详情时，点击评论图标进入评论输入框并尝试输入“我要”，但当用户不发送此评论信息，而是直接向上滑动帖子信息时，发现输入框中的评论信息已被清空，这不符合常规的用户交互逻辑，可能导致用户的信息丢失或误解。</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>界面显示 JayMe 首页 进入 Jay 迷 查看 惠州 站 演唱会 帖子 详情 点击 评论 图标 进入 评论 输入框 输入 我要 发送 评论 信息 向上 滑动 帖子 信息 发现 输入框 评论 信息 清空 符合 常规 交互 逻辑 信息 丢失 误解</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10010000007667</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>该界面的评论信息刷新机制存在问题。当用户发送评论后，系统并未正确更新帖子的位置和楼层信息，导致新发布的帖子位置异常，且与实际楼层不符。在截图1中，新发布的帖子位于32楼，而在截图2中，该帖子被移至81楼。此外，当用户向下滑动屏幕刷新界面时，帖子的刷新方式不正确，应该是自动移到最末端并显示为81楼，而不是回到原位再显示为32楼。这可能对用户造成混淆，影响用户体验。</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>界面 评论 信息 刷新 机制 发送 评论 系统 并未 正确 更新 帖子 位置 楼层 信息 新 发布 帖子 位置 异常 楼层 不符 截图 新 发布 帖子 位于 32 楼 截图 帖子 移至 81 楼 向下 滑动 屏幕 刷新 界面 帖子 刷新 方式 正确 应该 自动 移 最末端 81 楼 回到 原位 32 楼 造成 混淆</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10010000007668</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>在登录JayMe并进入Jay迷吧最新帖子界面后，点击关于惠州站演唱会的帖子下的评论图标，进入帖子详情界面。在这里，可以输入评论信息并点击发送按钮。然而，尽管显示已成功发送评论到32楼，但没有出现“成功评论”的提示信息。这与测试单独评论某个跟帖用户发布的信息时出现的评论成功提示信息不符。</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>登录 JayMe 进入 Jay 迷 最新 帖子 界面 点击 惠州 站 演唱会 帖子 评论 图标 进入 帖子 详情 界面 输入 评论 信息 点击 发送 按钮 成功 发送 评论 32 楼 没有 出现 成功 评论 提示信息 单独 评论 跟帖 发布 信息 出现 评论 成功 提示信息 不符</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10010000009599</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>该界面的评论信息刷新机制存在问题。当用户发送评论后，系统并未正确更新帖子的位置和楼层信息，导致新发布的帖子位置异常，且与实际楼层不符。在截图1中，新发布的帖子位于32楼，而在截图2中，该帖子被移至81楼。此外，当用户向下滑动屏幕刷新界面时，帖子的刷新方式不正确，应该是自动移到最末端并显示为81楼，而不是回到原位再显示为32楼。这可能对用户造成混淆，影响用户体验。</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>界面 评论 信息 刷新 机制 发送 评论 系统 并未 正确 更新 帖子 位置 楼层 信息 新 发布 帖子 位置 异常 楼层 不符 截图 新 发布 帖子 位于 32 楼 截图 帖子 移至 81 楼 向下 滑动 屏幕 刷新 界面 帖子 刷新 方式 正确 应该 自动 移 最末端 81 楼 回到 原位 32 楼 造成 混淆</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>用户体验</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>在登录JayMe并进入Jay迷吧最新帖子界面后，点击关于惠州站演唱会的帖子下的评论图标，进入帖子详情界面。在这里，可以输入评论信息并点击发送按钮。然而，尽管显示已成功发送评论到32楼，但没有出现“成功评论”的提示信息。这与测试单独评论某个跟帖用户发布的信息时出现的评论成功提示信息不符。</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>登录 JayMe 进入 Jay 迷 最新 帖子 界面 点击 惠州 站 演唱会 帖子 评论 图标 进入 帖子 详情 界面 输入 评论 信息 点击 发送 按钮 成功 发送 评论 32 楼 没有 出现 成功 评论 提示信息 单独 评论 跟帖 发布 信息 出现 评论 成功 提示信息 不符</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>用户体验</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>该软件在输入框中存在一个bug。当用户在输入框内输入错误的文字并希望删除时，他们发现无法执行删除操作，这可能导致用户无法有效地编辑或纠正他们的输入。</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>输入框 输入框 输入 错误 文字 希望 删除 发现 无法 执行 删除 无法 有效 编辑 纠正 输入</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10010000008883</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>第一步：进入朋友面板，点击任意群聊，点击右侧加号按钮，上传图片文件。
 第二步：待图片上传完成后， 点击图片预览，预览结束后点击图片无法退出，且没有相关操作。</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>第一步 进入 朋友 面板 点击 任意 群聊 点击 右侧 加号 按钮 上传 图片 文件 
  第二步 图片 上传 完成   点击 图片 预览 预览 结束 点击 图片 无法 退出 没有 相关</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10010000009190</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>该软件在群聊中存在一个bug，当用户试图粘贴超长文字时，系统并未给出任何提示信息。相反，它直接阻止了粘贴操作，导致用户无法进行正常的交流和信息分享。这种设计缺陷可能会严重影响用户的使用体验，特别是对于需要频繁发送或接收大量文本的用户来说。</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>群聊 试图 粘贴 超长 文字 系统 并未 给出 提示信息 相反 阻止 粘贴 无法 进行 正常 交流 信息 分享 设计 缺陷 严重 特别 频繁 发送 接收 大量 文本</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10010000008687</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>在当前的对话框中，当输入的字数过多时，界面显示异常。具体表现为只能看到最近一行的文字输入内容，而之前的多行文字无法被用户阅读。这种情况极大地影响了用户的使用体验，使得他们难以查看和修改之前的内容，从而导致了不便。</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>当前 对话框 输入 字数 过多时 界面显示 异常 具体表现 只能 看到 最近 一行 文字 输入 内容 之前 多行 文字 无法 阅读 情况 极大 难以 查看 修改 之前 内容 不便</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10010000009007</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>该软件的表情功能存在明显的限制。用户无法添加或自定义他们想要的表情包，只能使用预设的有限表情。此外，没有明确的途径或按钮来引导用户进行新表情包的添加或更新。这限制了用户的个性化体验和表达多样性。</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>表情 明显 限制 无法 添加 自定义 想要 表情 包 只能 预设 有限 表情 没有 明确 途径 按钮 引导 进行 新 表情 包 添加 更新 限制 个性化 表达 多样性</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10010000009354</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>该软件在用户上传文件功能上存在明显的设计缺陷。具体表现为，用户在上传过程中无法取消操作，一旦开始上传错误文件，只能无奈等待整个上传过程完成，这极大地增加了用户的使用困扰和流量损失风险。</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>上传 文件 明显 设计 缺陷 具体表现 上传 过程 无法 取消 上传 错误 文件 只能 无奈 等待 整个 上传 过程 完成 极大 增加 困扰 流量 损失 风险</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10010000009506</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>在输入法中输入“笑哭”表情和在表情列表中点击“笑哭”表情的结果不一致，导致输入法中的表情无法被保存。这是一个明显的功能缺陷，且该缺陷每次都会出现。</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>输入法 输入 笑 哭 表情 表情 列表 点击 笑 哭 表情 一致 输入法 表情 无法 保存 明显 缺陷 缺陷 每次 出现</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10010000008056</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>在群聊中，当成员尝试发送PNG格式的图片时，该图片无法在聊天界面中直接预览。相反，接收者必须下载此图片才能查看其内容。这可能导致接收者的不便和困惑，因为他们需要额外的步骤来查看发送的图片。</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>群聊 成员 发送 PNG 格式 图片 图片 无法 聊天 界面 预览 相反 接收者 必须 下载 图片 查看 内容 接收者 不便 困惑 额外 查看 发送 图片</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10010000008507</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>在聊天记录中，当群公告输入为空格时，该公告的内容无法显示，导致用户无法查看到正常的群公告信息。</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>聊天记录 当群 公告 输入 空格 公告 内容 无法 无法 查看 正常 群 公告 信息</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10010000008779</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>聊天时，发送语音，接听的时候不可以手动切换听筒模式与外放模式，而拿起手机后可以自动转化听筒模式。</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>聊天 发送 语音 接听 手动 切换 听筒 模式 外放 模式 手机 自动 转化 听筒 模式</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10010000008894</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>这个软件的bug是在用户发送图片或文件后，如果用户想要查看他们发送的内容，他们还需要下载这些内容。这违反了用户期望能够直接在聊天界面中预览他们发送的文件的标准。</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>软件 发送 图片 文件 想要 查看 发送 内容 下载 内容 违反 期望 能够 聊天 界面 预览 发送 文件 标准</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10010000008440</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>描述：在Android系统电脑上，当尝试进入群聊并使用表情按钮时，软件无法发送任何表情。点击表情区域会导致返回编辑模式，导致用户无法正常发送表情。</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Android 系统 电脑 进入 群聊 表情 按钮 软件 无法 发送 表情 点击 表情 区域 返回 编辑 模式 无法 正常 发送 表情</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10010000008896</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>群聊发送的内容字数有限制</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>群聊 发送 内容 字数 限制</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10010000007992</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>拒绝接收电话后，未显示原先拍好的照片</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>拒绝 接收 电话 未 原先 拍好 照片</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10010000008076</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>后缀名为“sh”的文件发送失败</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>后缀名 sh 文件 发送 失败</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10010000008721</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>输入群公告信息，提示创建公告成功，在聊天页面没有显示</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>输入 群 公告 信息 提示 创建 公告 成功 聊天 页面 没有</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10010000009249</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>在聊天记录中，用户尝试下载并发送语音文件。尽管系统提示发送成功，但接收方并未收到任何语音消息。</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>聊天记录 下载 发送 语音 文件 系统 提示 发送 成功 接收 方 并未 收到 语音 消息</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>10010000008172</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="C35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>群公告只能保留当前的内容，历史群公告不能保存。严重影响用户体验。下图是当前一条群公告。</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>群 公告 只能 保留 当前 内容 历史 群 公告 不能 保存 严重 下图 当前 一条 群 公告</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10010000009980</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>在群共享文件上传过程中，用户无法直接删除正在上传的文件。当用户尝试返回聊天界面进行删除操作时，发现可以成功删除文件。然而，当用户再次返回到群共享界面时，会发现之前正在上传的文件已被系统自动删除。</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>群 共享 文件 上传 过程 无法 删除 正在 上传 文件 返回 聊天 界面 进行 删除 发现 成功 删除 文件 再次 返回 群 共享 界面 发现 之前 正在 上传 文件 系统 自动 删除</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10010000008112</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>这个软件的bug在于，用户在聊天中接收到的PNG格式文件无法直接打开查看。当用户点击该文件时，系统没有正确地处理PNG格式的文件，因此导致用户无法浏览图像内容。</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>软件 聊天 接收 PNG 格式文件 无法 打开 查看 点击 文件 系统 没有 正确 处理 PNG 格式 文件 无法 浏览 内容</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>10010000009268</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>无法设置聊天背景，无法收藏聊天图片。</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>无法 设置 聊天 背景 无法 收藏 聊天 图片</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10010000008378</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>在查看图集时，左右滑动切换图片功能似乎存在异常，用户必须先关闭该功能才能使用滑动切换。此外，当后台播放音乐时，在“杰迷吧”听歌会导致当前播放的歌曲暂停，这与预期的功能不符。另外，邀请好友加入群聊的操作似乎没有经过好友的同意确认，这可能违反了正常的社交互动规则。群公告的修改功能也存在问题，用户只能删除原有的公告并重新编写，而不能进行其他编辑操作。最后，修改字体大小的功能似乎只对聊天窗口有效，而对其他部分无效，这可能是界面设计上的不一致或者功能实现上的错误。</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>查看 图集 左右 滑动 切换 图片 异常 必须 先 关闭 滑动 切换 后台 播放 音乐 杰迷 听 歌会 当前 播放 歌曲 暂停 预期 不符 邀请 好友 加入 群聊 没有 好友 同意 确认 违反 正常 社交互动 规则 群 公告 修改 只能 删除 原有 公告 重新 编写 不能 进行 编辑 最后 修改 字体大小 聊天 窗口 有效 部分 无效 界面设计 一致 实现 错误</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10010000008396</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>群号码不能复制，查询群有阻碍</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>群号码 不能 复制 查询 群有 阻碍</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10010000009377</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>前提条件：
 1、用户正使用杰迷吧音乐播放器听歌（外放）；
@@ -1136,7 +1516,7 @@
 1、步骤2执行后发现，播放器仅能使用听筒播放音乐，不能通过外放播放音乐。</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>前提条件 
  正 杰迷 音乐 播放器 听歌 外放 
@@ -1149,271 +1529,415 @@
  执行 发现 播放器 仅能 听筒 播放 音乐 不能 外放 播放 音乐</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>10010000008399</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>复制表情后在聊天框中粘贴无法正常显示为表情</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>复制 表情 聊天 框中 粘贴 无法 正常 表情</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10010000008781</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>该图像显示了一个手机屏幕截图，其中包含一个群公告，该公告由一系列黄色的表情符号组成。表情符号包括各种面部特征，如眼睛、鼻子和嘴巴。这些表情符号被排列成多行，覆盖了整个屏幕。然而，当尝试阅读群公告时，内容无法显示，取而代之的是系统自带的默认表情。这似乎是一个显示错误或故障，导致原本的文本内容无法显示，而只展示了系统默认的表情。</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>手机 屏幕 截图 包含 群 公告 公告 一系列 黄色 表情符号 组成 表情符号 包括 面部 特征 眼睛 鼻子 嘴巴 表情符号 排列成 多行 覆盖 整个 屏幕 阅读 群 公告 内容 无法 取而代之 系统 自带 默认 表情 错误 故障 原本 文本 内容 无法 展示 系统 默认 表情</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10010000008638</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>群聊中的小视频不能在聊天窗口中直接播放，而得转到其他应用软件中播放。</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>群聊 小视频 不能 聊天 窗口 播放 转到 应用软件 播放</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10010000009278</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="C45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>1 群公告中没有显示公告发送时间
 2 发送新的群公告时，是在原来公告基础上编辑，没有编辑新公告的选项</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t xml:space="preserve">  群 公告 没有 公告 发送 时间 
    发送 新 群 公告 原来 公告 基础 编辑 没有 编辑 新 公告 选项</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10010000008833</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>发送信息有字数限制，当你发送的文字超过一定值的时候，多余的字会转变成TXT文件发送给对方</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>发送信息 字数 限制 发送 文字 超过 一定 值 多余 字会 转变成 TXT 文件 发送给</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10010000009067</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>该APP中的声音提醒要开启铃声才能听到，只开媒体的声音时听不到声音提醒，如果手机静音的话则听不到声音提醒了，这对一些不想要手机铃声却不影响媒体提示音的人来说这问题比较明显</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>APP 声音 提醒 开启 铃声 听到 只开 媒体 声音 听 不到 声音 提醒 手机 静音 听 不到 声音 提醒 想要 手机 铃声 媒体 提示音 比较 明显</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10010000008525</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>问题描述：在尝试上传文件时，系统会显示错误消息“文件缺少后缀名”。然而，许多文件，特别是配置文件和用户创建的文件，通常不包含扩展名或后缀。因此，系统不应基于文件的后缀名来验证其有效性。</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>上传 文件 系统 错误 消息 文件 缺少 后缀名 文件 特别 配置文件 创建 文件 通常 包含 扩展名 后缀 系统 应 文件 后缀名 验证 有效性</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10010000008718</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>在软件界面中，群公告的发布功能存在限制。用户只能发布一个公告，并且无法在同一群内同时发布多个公告。当用户尝试发布新的公告时，原有的公告会被新的公告所取代，导致之前的公告信息丢失。这种设计使得群公告的管理变得不完整和不方便。</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>软件 界面 群 公告 发布 限制 只能 发布 公告 无法 一群 发布 多个 公告 发布 新 公告 原有 公告 新 公告 取代 之前 公告 信息 丢失 设计 群 公告 管理 变得 完整 方便</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10010000008601</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>表情发送:用键盘上的表情发现与填写不符合</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>表情 发送 : 键盘 表情 发现 填写 符合</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10010000008881</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="C51" t="n">
+        <v>3</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>在软件界面的“添加好友”功能中，用户在发送好友请求后，并未收到任何反馈信息。无论是成功发送提示还是失败告知，都没有在界面上出现。这导致用户无法判断他们的请求是否已经成功发送，增加了用户的不确定性和焦虑感。</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>软件 界面 添加 好友 发送 好友 请求 并未 收到 反馈 信息 无论是 成功 发送 提示 失败 告知 没有 界面 出现 无法 判断 请求 是否 成功 发送 增加 不确定性 焦虑 感</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>10010000009044</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="C52" t="n">
+        <v>3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>该软件在群聊或与他人聊天时，其功能相对有限。与其他聊天应用相比，它缺少一些常见的互动功能，例如发送红包等。</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>群聊 聊天 相对 有限 聊天 应用 相比 缺少 常见 互动 发送 红包</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10010000009159</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="C53" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>查看相册时，不能左右滑查看其它照片，只能返回再重新打开另一张照片。很麻烦。</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>查看 相册 不能 左右 滑 查看 照片 只能 返回 重新 打开 一张 照片 麻烦</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10010000009205</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="C54" t="n">
+        <v>3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>在用户群聊的过程中，若用户需要拍照或是发送图片，只能选择完整长宽的图片进行发送，不能对图片进行裁剪。这个bug算是一个功能的不完整，对用户的使用也产生了一定的影响。</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>群聊 过程 拍照 发送 图片 只能 选择 完整 长宽 图片 进行 发送 不能 图片 进行 裁剪 算是 完整 产生 一定</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>10010000009346</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>好友在群里发送了一个.so的文件。提示消息无法打开此类型文件，长按该文件却没有给出其他打开方式。</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>好友 群里 发送 . so 文件 提示 消息 无法 打开 类型 文件 长 文件 没有 给出 打开方式</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10010000009880</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>该软件在处理文件上传时出现了错误，导致用户无法上传长度为0或缺少后缀名的文件。</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>处理 文件 上传 出现 错误 无法 上传 长度 缺少 后缀名 文件</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10010000009040</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>1.测试功能：聊天发送字数与自动转换为文件功能
 2.重现步骤：在好友聊天界面，输入大量信息并发送
@@ -1421,7 +1945,7 @@
 4预期结果：当消息过多时，自动转换为txt文件发送</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>. 聊天 发送 字数 自动 转换 文件 
  . 重现 好友 聊天 界面 输入 大量 信息 发送 
@@ -1429,99 +1953,153 @@
  预期 消息 过多时 自动 转换 txt 文件 发送</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>10010000008847</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="C58" t="n">
+        <v>5</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>该软件的聊天设置中查看来往文件功能似乎存在问题，导致用户在尝试查看文件时遇到了错误或崩溃。</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>聊天 设置 查看 来往 文件 查看 文件 遇到 错误 崩溃</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10010000008732</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="C59" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>该软件的快捷回复功能似乎存在bug，用户在添加完快捷回复内容后，无法进行修改。</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>快捷 回复 添加 完 快捷 回复 内容 无法 进行 修改</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10010000008966</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="C60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>群聊语音不能听见别人发的语音，只能在本地听见声音</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>群聊 语音 不能 听见 发 语音 只能 听见 声音</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10010000009358</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5</v>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>文件传输助手发送的语音无法正常播放（播放的声音和实际的声音不同）</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>文件传输 助手 发送 语音 无法 正常 播放 播放 声音 声音 不同</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10010000009073</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="C62" t="n">
+        <v>3</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>发出去的语音总是一对杂音</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>发出 语音 总是 一对 杂音</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>10010000009137</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="C63" t="n">
+        <v>4</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>该软件在“群公告”功能的测试中出现了以下问题：
 1、当用户尝试输入超过限定的字数时，系统并未提供任何提示信息，导致用户无法正常输入。
@@ -1529,7 +2107,7 @@
 3、群公告功能的设计存在缺陷，用户只能发送一次公告，且在删除上一次公告前，新的公告功能并未实现，这严重影响了用户的使用体验。</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>群 公告 出现 以下 
  输入 超过 限定 字数 系统 并未 提供 提示信息 无法 正常 输入 
@@ -1537,543 +2115,831 @@
  群 公告 设计 缺陷 只能 发送 一次 公告 删除 一次 公告 前 新 公告 并未 实现 严重</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>10010000009564</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>该软件在用户拒绝入群后，仍会向用户发送邀请通知。当用户尝试一次性拒绝时，系统并未提供相应的功能支持，导致用户无法有效地管理其接收的通知。</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>拒绝 入群 仍会 发送 邀请 通知 一次性 拒绝 系统 并未 提供 相应 支持 无法 有效 管理 接收 通知</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>10010000009338</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="C65" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4</v>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>简介的演艺作品为音乐，不能进行试听。</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>简介 演艺 作品 音乐 不能 进行 试听</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10010000009467</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="C66" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4</v>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>新闻只能浏览(๑`･ᴗ･´๑)不能转发，点赞或评论</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>新闻 只能 浏览 ( ๑ ` ･ ᴗ ･ ´ ๑ ) 不能 转发 点赞 评论</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10010000009404</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>别人发的语音一开始无法下载，在重新启动了手机以后才能接受</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>发 语音 无法 下载 重新启动 手机 以后 接受</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>10010000009601</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="C68" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" t="inlineStr">
         <is>
           <t>在发送过多的大表情之后，无论是否为群主都会被禁言，而且禁言的显示一直不会消失，除非退出重进</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>发送 过多 表情 之后 是否 群主 禁言 禁言 一直 不会 消失 退出 重进</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>10010000009490</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>听不到自己发送的语音，也听不到自己发送的语音。</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>听 不到 发送 语音 听 不到 发送 语音</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>10010000009888</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="C70" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t>聊天表情比较少， 只有系统自带的四种， 没有自己可以添加的功能。 对于周杰伦的年轻粉丝来说，不是一个好消息。</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>聊天 表情 比较 少   系统 自带 四种   没有 添加   周杰伦 年轻 粉丝 好消息</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10010000009591</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="inlineStr">
         <is>
           <t>在jayme朋友界面中，当选择“群组”并进入聊天页面后，期望找到“小视频”分享功能。但实际结果是该功能不存在，只能通过照片、图片和文件分享功能进行交流。这与用户的期望不符，显示了一个功能缺失的问题。</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>jayme 朋友 界面 选择 群组 进入 聊天 页面 期望 找到 小视频 分享 只能 照片 图片 文件 分享 进行 交流 期望 不符 缺失</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>10010000009817</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="C72" t="n">
+        <v>3</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4</v>
+      </c>
+      <c r="E72" t="inlineStr">
         <is>
           <t>图片不能滑动切换。只能靠返回重新打开查看。</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>图片 不能 滑动 切换 只能靠 返回 重新 打开 查看</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>10010000009953</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="C73" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" t="inlineStr">
         <is>
           <t>该软件在用户尝试添加好友时，发送请求后没有给出任何反馈或提示，导致用户无法确认请求是否已成功发送。</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>添加 好友 发送 请求 没有 给出 反馈 提示 无法 确认 请求 是否 成功 发送</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>10010000009958</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="C74" t="n">
+        <v>3</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" t="inlineStr">
         <is>
           <t>在发帖子的页面中，当用户尝试输入大量表情符号时，系统出现了性能问题，导致页面卡顿并最终崩溃。用户因此无法成功发布帖子。</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>发帖子 页面 输入 大量 表情符号 系统 出现 性能 页面 卡顿 最终 崩溃 无法 成功 发布 帖子</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>10010000009973</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="C75" t="n">
+        <v>3</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>帖子内容超过两行并没有省略的显示。</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>帖子 内容 超过 两行 没有 省略</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>功能不完整</t>
-        </is>
-      </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" t="n">
+        <v>10010000009424</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>4</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5</v>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t>在Remix OS 5.1版本的X86设备上，用户无法通过系统发送表情。此问题可能与操作系统的兼容性或软件更新有关，导致表情功能无法正常使用。</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>Remix   OS   5.1 版本 X86 设备 无法 系统 发送 表情 操作系统 兼容性 软件 更新 表情 无法 正常</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>10010000008534</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="inlineStr">
         <is>
           <t>设置群名
 经检测，表情，utf的所有字符，均可以作为群名。但是群名的前后空格回车将被删去</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>设置 群名 
  经检测 表情 utf 字符 均 群名 群名 空格 回车 删去</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>10010000009430</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="C78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5</v>
+      </c>
+      <c r="E78" t="inlineStr">
         <is>
           <t>remixOS基于安卓的电脑平台使用该软件，无法发送表情</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>remixOS 安卓 电脑 平台 无法 发送 表情</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>10010000008303</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="C79" t="n">
+        <v>4</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5</v>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>在查看群组详情时，界面只展示了群简介的文字信息，而没有包括其他如群成员、群文件等的详细内容。</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>查看 群组 详情 界面 展示 群 简介 文字 信息 没有 包括 如群 成员 群 文件 详细 内容</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>10010000009572</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="C80" t="n">
+        <v>5</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="inlineStr">
         <is>
           <t>杰迷吧的音乐播放问题相当严重。音乐播放后就在后台运行了，退出app后重新进入该页面，可重新播放歌曲（此时上一首歌仍在播放中），几首歌曲叠加播放十分混乱简直就是噪音。 唯一把音乐关闭的方法只有停止运行app再重新进入</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>杰迷 音乐 播放 相当严重 音乐 播放 后台 运行 退出 app 重新 进入 页面 重新 播放歌曲 一首歌 播放 几首 歌曲 叠加 播放 十分 混乱 简直 噪音   唯一 音乐 关闭 方法 停止 运行 app 重新 进入</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>10010000009901</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="C81" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2</v>
+      </c>
+      <c r="E81" t="inlineStr">
         <is>
           <t>这个bug描述了一个软件的显示问题，具体来说，当用户成功回复一个帖子后，显示的回帖时间顺序与实际发生的事件不符。</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>软件 具体来说 成功 回复 帖子 回帖 时间 顺序 发生 事件 不符</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>10010000010020</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="C82" t="n">
+        <v>3</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5</v>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>该软件在尝试读取和上传手机信息时出现了问题，导致无法正常执行文件传输功能。</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>读取 上传 手机 信息 出现 无法 正常 执行 文件传输</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" t="n">
+        <v>10010000008748</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>3</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2</v>
+      </c>
+      <c r="E83" t="inlineStr">
         <is>
           <t>该软件在数据传输方面存在显著的性能问题。无论用户是使用100m的WIFI还是4G网络，加载头像以及接收语音和图片的速度都非常慢。有时，这些文件甚至无法成功加载。</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>数据传输 方面 显著 性能 100m WIFI 4G 网络 加载 头像 接收 语音 图片 速度 非常 慢 文件 无法 成功 加载</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>10010000008797</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="C84" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="inlineStr">
         <is>
           <t>多次发送大表情会被禁言，而且只能重登才能解除</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>多次 发送 表情 禁言 只能 重登 解除</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>10010000009624</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="C85" t="n">
+        <v>5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5</v>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t>经多次测试，发现跟我手机上的网易云音乐有冲突，导致网易云音乐播放无声音，JAYME卸载后就有声音。</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>多次 发现 手机 网易 云 音乐 冲突 网易 云 音乐 播放 声音 JAYME 卸载 声音</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>10010000008314</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="C86" t="n">
+        <v>4</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4</v>
+      </c>
+      <c r="E86" t="inlineStr">
         <is>
           <t>接收和发送的语音大概率无声音。</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>接收 发送 语音 概率 声音</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>10010000008546</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="C87" t="n">
+        <v>4</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4</v>
+      </c>
+      <c r="E87" t="inlineStr">
         <is>
           <t>语音可以双向接收，但是播放时没有声音（双向无声音）</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>语音 双向 接收 播放 没有 声音 双向 声音</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>10010000009264</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>该软件在点击查看聊天图片时，无法正常显示所有聊天图片，可能显示为空白或加载失败。</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>点击 查看 聊天 图片 无法 正常 聊天 图片 空白 加载 失败</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>10010000009515</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="C89" t="n">
+        <v>4</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" t="inlineStr">
         <is>
           <t>该软件在执行拍照功能后，用户打开所拍摄的照片时发现照片显示为全黑，无法正常查看照片内容。</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>执行 拍照 打开 拍摄 照片 发现 照片 全黑 无法 正常 查看 照片 内容</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>10010000008937</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="C90" t="n">
+        <v>4</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" t="inlineStr">
         <is>
           <t>该bug描述的问题是，在尝试从手机内存和SD卡中选择文件以发送时，显示的存储情况出现了紊乱。实际结果与预期结果不符，导致用户无法正确查找并选择他们想要发送的文件。</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>手机 内存 SD 卡中 选择 文件 发送 存储 情况 出现 紊乱 预期 不符 无法 正确 查找 选择 想要 发送 文件</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>10010000009142</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2</v>
+      </c>
+      <c r="E91" t="inlineStr">
         <is>
           <t>在我进行传图中，图片没有按照我给的顺序进行传送，而且传送的速度比较慢</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>进行 传图 图片 没有 顺序 进行 传送 传送 速度 比较慢</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>10010000009469</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="C92" t="n">
+        <v>4</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5</v>
+      </c>
+      <c r="E92" t="inlineStr">
         <is>
           <t>在打开杰迷吧的音乐后，在聊天发语音时，音乐对语音有干扰。</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>打开 杰迷 音乐 聊天 发 语音 音乐 语音 干扰</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>10010000009569</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="C93" t="n">
+        <v>4</v>
+      </c>
+      <c r="D93" t="n">
+        <v>5</v>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>在播放Jay主页的宣传片时，每次都没声音，之前调过依旧没声音</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>播放 Jay 主页 宣传片 每次 没 声音 之前 调 依旧 没 声音</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>10010000009664</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="C94" t="n">
+        <v>4</v>
+      </c>
+      <c r="D94" t="n">
+        <v>3</v>
+      </c>
+      <c r="E94" t="inlineStr">
         <is>
           <t>与其他软件有冲突，把“网易云音乐”有冲突，把“网易云”卸载后就可以听到语音内容了。</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>其他软件 冲突 网易 云 音乐 冲突 网易 云 卸载 听到 语音 内容</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>10010000009846</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="C95" t="n">
+        <v>3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>3</v>
+      </c>
+      <c r="E95" t="inlineStr">
         <is>
           <t>4.杰伦新闻，或者咨询，或者发帖子。完全没有显示定位，通过显示周杰伦活动的定位，有利于粉丝追寻周杰伦的活动现场，方便用户使用。
 5.用户聊天群缺少一项功能。就是推荐群，比如可以推荐一些很有特色，有关杰粉主题的群，大家都可以看到，可以添加的群，加强用户之间活动性。
@@ -2081,7 +2947,7 @@
 8.主页应该添加杰伦旅游一框功能，针对杰伦外出旅游的攻略，或者可以给杰伦发布旅游攻略，或者其他用户发布旅游攻略。</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>. 杰伦 新闻 咨询 发帖子 完全 没有 定位 周杰伦 活动 定位 有利于 粉丝 追寻 周杰伦 活动 现场 方便 
  . 聊天 群 缺少 一项 推荐 群 推荐 特色 杰粉 主题 群 看到 添加 群 加强 之间 活动性 
@@ -2089,82 +2955,127 @@
  . 主页 应该 添加 杰伦 旅游 一框 杰伦 外出 旅游 攻略 杰伦 发布 旅游 攻略 发布 旅游 攻略</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>性能</t>
-        </is>
-      </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" t="n">
+        <v>10010000009021</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>页面布局缺陷</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5</v>
+      </c>
+      <c r="E96" t="inlineStr">
         <is>
           <t>在群聊界面进行手写输入时，如果添加图片，则图片被自动设置为背景，被文字覆盖，既无法看清图片，也无法看清文字。</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>群聊 界面 进行 手写输入 添加 图片 图片 自动 设置 背景 文字 覆盖 无法 看清 图片 无法 看清 文字</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>10010000008492</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="C97" t="n">
+        <v>4</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" t="inlineStr">
         <is>
           <t>输入框右侧表情头像被掩盖了部分，强迫症的人看了不舒服，需要改善。</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>输入框 右侧 表情 头像 掩盖 部分 强迫症 舒服 改善</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>10010000008835</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="C98" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5</v>
+      </c>
+      <c r="E98" t="inlineStr">
         <is>
           <t>文字与图片重叠。给杰伦送花，花字被小花图标覆盖</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>文字 图片 重叠 杰伦 送花 花字 小花 图标 覆盖</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>10010000009465</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>5</v>
+      </c>
+      <c r="E99" t="inlineStr">
         <is>
           <t>上传图片超过九张，所提示的显示框  显示的时间过长（每次点击时间会叠加）</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>上传 图片 超过 九张 提示 框     时间 过长 每次 点击 时间 叠加</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>10010000009311</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="C100" t="n">
+        <v>3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" t="inlineStr">
         <is>
           <t>1.首页上方图片墙点击不可放大或查看视频，只有点右下角的播放键才能播放。
 2.视频播放后点击屏幕不能暂停或退出，只能等到播放完毕才能自动退出。
@@ -2172,7 +3083,7 @@
 4.往下滑动查看周杰伦微博后，不能一键回到顶部。</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>. 首页 上方 图片 墙 点击 不可 放大 查看 视频 有点 右下角 播放 键 播放 
  . 视频 播放 点击 屏幕 不能 暂停 退出 只能 播放 完毕 自动 退出 
@@ -2180,188 +3091,287 @@
  . 往下 滑动 查看 周杰伦 微博后 不能 一键 回到 顶部</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>10010000009442</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="C101" t="n">
+        <v>4</v>
+      </c>
+      <c r="D101" t="n">
+        <v>4</v>
+      </c>
+      <c r="E101" t="inlineStr">
         <is>
           <t>周杰伦微博中的图片打开后长按会跳转网页</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>周杰伦 微博中 图片 打开 后长 按会 跳转 网页</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>10010000009799</v>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="C102" t="n">
+        <v>4</v>
+      </c>
+      <c r="D102" t="n">
+        <v>4</v>
+      </c>
+      <c r="E102" t="inlineStr">
         <is>
           <t>发出去的帖子和跟贴，或者评论帖子的都没有定位。或者显示附近多少米范围内。
 购买杰伦商品没有发货地址，还有支付订单时，仅仅支持支付宝支付。应该添加货到付款，银行卡付款，微信付款等多渠道付款方式。主页应该添加杰伦旅游一框功能，针对杰伦外出旅游的攻略，或者可以给杰伦发布旅游攻略，或者其他用户发布旅游攻略。</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>发出 帖子 跟贴 评论 帖子 没有 定位 附近 米 范围 
  购买 杰伦 商品 没有 发货 地址 支付 订单 仅仅 支持 支付宝 支付 应该 添加 货到付款 银行卡 付款 微信 付款 多渠道 付款 方式 主页 应该 添加 杰伦 旅游 一框 杰伦 外出 旅游 攻略 杰伦 发布 旅游 攻略 发布 旅游 攻略</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>页面布局缺陷</t>
-        </is>
-      </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" t="n">
+        <v>10010000007609</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>3</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" t="inlineStr">
         <is>
           <t>图片描述了一个用户界面，其中显示了一个黑色T恤的图像和相关的文字信息。
 问题描述：在用户界面中，当尝试执行踢除用户的操作时，系统未能成功执行该功能。</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>图片 用户界面 黑色 T恤 相关 文字 信息 
  用户界面 执行 踢 系统 未能 成功 执行</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>10010000007619</v>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="C104" t="n">
+        <v>5</v>
+      </c>
+      <c r="D104" t="n">
+        <v>5</v>
+      </c>
+      <c r="E104" t="inlineStr">
         <is>
           <t>在发帖界面中，用户点击添加图片的图标后，系统提示使用相机进行拍照。当用户完成拍照并确认后，新图片直接显示在帖子内容下方，并且系统的提示标志显示有新图片生成。右上角有一个红色数字1的标记，用户点击这个红色提示图标后进入系统默认的相册应用。然而，在相册中，用户发现刚才拍摄的图片并没有显示出来，因此无法选择它。相册的第一个图标是一个相机图标，这暗示着用户需要重新拍照来上传图片。</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>发帖 界面 点击 添加 图片 图标 系统 提示 相机 进行 拍照 完成 拍照 确认 新 图片 帖子 内容 下方 系统 提示 标志 新 图片 生成 右上角 红色 数字 标记 点击 红色 提示 图标 进入 系统 默认 相册 应用 相册 发现 刚才 拍摄 图片 没有 无法 选择 相册 第一个 图标 相机 图标 暗示着 重新 拍照 上传 图片</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>10010000007639</v>
+      </c>
+      <c r="B105" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="C105" t="n">
+        <v>3</v>
+      </c>
+      <c r="D105" t="n">
+        <v>3</v>
+      </c>
+      <c r="E105" t="inlineStr">
         <is>
           <t>问题描述：在“杰迷吧-最新”板块中，用户在寻找并评论帖子时遇到了一个评论数显示的问题。当用户已经结束评论后，他们发现帖子评论框上的数字（表示已收到的评论数）并没有立即增加，而是出现了延迟。这意味着即使用户已经发表了评论，评论数的增加并不会立刻反映出来。这可能对用户造成困惑，因为他们可能会误以为自己的评论没有被计入总数。</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>杰迷 - 最新 板块 寻找 评论 帖子 遇到 评论 数 结束 评论 发现 帖子 评论 框上 数字 表示 收到 评论 数 没有 立即 增加 出现 延迟 意味着 发表 评论 评论 数 增加 不会 立刻 反映 造成 困惑 误以为 评论 没有 计入 总数</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>10010000008836</v>
+      </c>
+      <c r="B106" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="C106" t="n">
+        <v>4</v>
+      </c>
+      <c r="D106" t="n">
+        <v>5</v>
+      </c>
+      <c r="E106" t="inlineStr">
         <is>
           <t>在群组设置中，用户试图查看群公告时遇到了问题。当前的设计似乎没有提供查看历史公告的功能，导致用户无法回顾过去的公告内容。这样的设计缺陷可能会影响用户的使用体验，因为他们无法获取过去的重要信息。这种不便可能会对用户的满意度和对应用的整体依赖性产生负面影响。</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>群组 设置 试图 查看 群 公告 遇到 当前 设计 没有 提供 查看 历史 公告 无法 回顾过去 公告 内容 设计 缺陷 无法 获取 过去 重要 信息 不便 满意度 应用 整体 依赖性 产生 负面影响</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>10010000008067</v>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4</v>
+      </c>
+      <c r="E107" t="inlineStr">
         <is>
           <t>在软件测试过程中，用户报告了一个表情复制粘贴的问题。当用户尝试复制一个表情并在聊天框中粘贴时，该表情并未正确显示，而是展示为一串代码。这可能表明了软件在处理表情的复制和粘贴功能时存在缺陷，导致预期的表情无法正确呈现给用户。</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>软件测试 过程 报告 表情 复制粘贴 复制 表情 聊天 框中 粘贴 表情 并未 正确 展示 一串 代码 表明 软件 处理 表情 复制 粘贴 缺陷 预期 表情 无法 正确 呈现</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>10010000008519</v>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="C108" t="n">
+        <v>3</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4</v>
+      </c>
+      <c r="E108" t="inlineStr">
         <is>
           <t>在聊天应用中，用户尝试复制并粘贴表情符号时，系统错误地呈现了默认的、非特定应用内的表情样式。这种显示与预期的应用内表情样式不符，导致用户体验不一致。</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>聊天 应用 复制 粘贴 表情符号 系统 错误 呈现 默认 非 特定 应用 表情 样式 预期 应用 表情 样式 不符 一致</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>10010000007911</v>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="C109" t="n">
+        <v>3</v>
+      </c>
+      <c r="D109" t="n">
+        <v>5</v>
+      </c>
+      <c r="E109" t="inlineStr">
         <is>
           <t>该软件在聊天时，当用户在文本框内输入数字并达到上限后，尾数部分被高亮显示。</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>聊天 文本框 输入 数字 达到 上限 尾数 部分 高亮</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>10010000008848</v>
+      </c>
+      <c r="B110" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="C110" t="n">
+        <v>3</v>
+      </c>
+      <c r="D110" t="n">
+        <v>3</v>
+      </c>
+      <c r="E110" t="inlineStr">
         <is>
           <t>该软件在快捷回复和群名称编辑功能中，存在一个输入框的格式设置问题。具体来说，当用户尝试在输入框中输入带有空格的文字时，该功能并不能正确处理或显示这些空格。这导致用户在尝试使用这个功能进行文本编辑或快速回复时，无法实现预期的文本格式效果，从而影响了用户体验。</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>快捷 回复 群 名称 编辑 输入框 格式 设置 具体来说 输入框 输入 带有 空格 文字 不能 正确处理 空格 进行 文本编辑 快速 回复 无法 实现 预期 文本格式 效果</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>10010000009129</v>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="C111" t="n">
+        <v>2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>5</v>
+      </c>
+      <c r="E111" t="inlineStr">
         <is>
           <t>测试功能:语音播放
 重现步骤:点击语音播放
@@ -2369,7 +3379,7 @@
 实际结果:音量较小，调节手机音量后无效</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>: 语音 播放 
  重现 : 点击 语音 播放 
@@ -2377,733 +3387,1106 @@
  : 音量 调节 手机 音量 无效</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>10010000009562</v>
+      </c>
+      <c r="B112" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="C112" t="n">
+        <v>3</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4</v>
+      </c>
+      <c r="E112" t="inlineStr">
         <is>
           <t>该软件界面中，文件上传功能没有提供直接的上传按钮，而是要求用户手动从手机存储中选择文件进行上传。这种设计使得用户操作过程复杂且不直观，可能导致用户体验不佳。</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>界面 文件 上传 没有 提供 上传 按钮 要求 手动 手机 存储 选择 文件 进行 上传 设计 操作过程 复杂 直观 不佳</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>10010000008354</v>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="C113" t="n">
+        <v>3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4</v>
+      </c>
+      <c r="E113" t="inlineStr">
         <is>
           <t>在群聊中，当好友发送了一张png格式的图片时，预期的预览效果并未出现。相反，接收到的是一个文件，而非正常的图片预览显示。</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>群聊 好友 发送 一张 png 格式 图片 预期 预览 效果 并未 出现 相反 接收 文件 非正常 图片 预览</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>10010000008493</v>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="C114" t="n">
+        <v>2</v>
+      </c>
+      <c r="D114" t="n">
+        <v>5</v>
+      </c>
+      <c r="E114" t="inlineStr">
         <is>
           <t>该软件界面中的表情选择功能似乎存在故障，导致用户在尝试复制并粘贴表情时遇到问题。此外，聊天框中显示的代码格式可能对用户造成困扰，特别是当他们需要编辑或修改表情时。</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>界面 表情 选择 故障 复制 粘贴 表情 遇到 聊天 框中 代码 格式 造成 困扰 特别 编辑 修改 表情</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>10010000009182</v>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="C115" t="n">
+        <v>3</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5</v>
+      </c>
+      <c r="E115" t="inlineStr">
         <is>
           <t>在群公告中，当群主尝试使用表情时，聊天界面无法正确显示这些表情，只展示出对应的文字内容。尽管群组的设置允许显示表情，但在实际的聊天记录中，这些表情被错误地忽略了。</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>群 公告 群主 表情 聊天 界面 无法 正确 表情 展示 出 对应 文字 内容 群组 设置 允许 表情 聊天记录 表情 错误 忽略</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>10010000008344</v>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="C116" t="n">
+        <v>2</v>
+      </c>
+      <c r="D116" t="n">
+        <v>5</v>
+      </c>
+      <c r="E116" t="inlineStr">
         <is>
           <t>该界面在“发送文件”的选项下，没有明确告知用户可发送的最大文件大小限制。这可能会让用户在选择发送大文件时，无法预期到可能的问题或限制。</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>界面 发送 文件 选项 没有 明确 告知 发送 最大 文件大小 限制 选择 发送 文件 无法 预期 限制</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>10010000008029</v>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>5</v>
+      </c>
+      <c r="E117" t="inlineStr">
         <is>
           <t>重现步骤:加入群聊后播放语音
 期望结果:语音清晰，内容准确，可调节音量大小
 实际结果:音量较小，调节手机音量后无效</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>重现 : 加入 群聊 播放 语音 
  期望 : 语音 清晰 内容 准确 调节 音量 大小 
  : 音量 调节 手机 音量 无效</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>10010000007948</v>
+      </c>
+      <c r="B118" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="C118" t="n">
+        <v>3</v>
+      </c>
+      <c r="D118" t="n">
+        <v>5</v>
+      </c>
+      <c r="E118" t="inlineStr">
         <is>
           <t>表情好难看啊！建议更新下表情包</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>表情 难看 建议 更新 表情 包</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>10010000008957</v>
+      </c>
+      <c r="B119" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="C119" t="n">
+        <v>3</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5</v>
+      </c>
+      <c r="E119" t="inlineStr">
         <is>
           <t>在群组设置的共享功能页面中，用户在上传文件后发现没有提供暂停或取消上传的按钮。这使得用户在上传大型文件时无法中途停止或更改操作，可能会导致不必要的数据传输和可能的等待时间。</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>群组 设置 共享 页面 上传 文件 发现 没有 提供 暂停 取消 上传 按钮 上传 大型 文件 无法 中途 停止 更改 不必要 数据传输 等待时间</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>10010000008103</v>
+      </c>
+      <c r="B120" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="C120" t="n">
+        <v>3</v>
+      </c>
+      <c r="D120" t="n">
+        <v>5</v>
+      </c>
+      <c r="E120" t="inlineStr">
         <is>
           <t>在群公告编辑前，没有任何提示或警告。</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>群 公告 编辑 前 没有 提示 警告</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>10010000008540</v>
+      </c>
+      <c r="B121" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="C121" t="n">
+        <v>5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5</v>
+      </c>
+      <c r="E121" t="inlineStr">
         <is>
           <t>该软件界面显示，当用户尝试长时间按住并发送好友发送的图片时，系统并未提供收藏或保存图片的选项。这意味着用户无法将此图片存入其个人收藏或设备存储中，这可能会影响用户的使用体验和功能需求。</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>界面显示 长时间 按住 发送 好友 发送 图片 系统 并未 提供 收藏 保存 图片 选项 意味着 无法 图片 存入 个人 收藏 设备 存储 需求</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>10010000009412</v>
+      </c>
+      <c r="B122" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="C122" t="n">
+        <v>5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4</v>
+      </c>
+      <c r="E122" t="inlineStr">
         <is>
           <t>该bug描述如下：当用户在一个帖子中进行评论，特别是回复在较高楼层的帖子时，他们可能会遇到一个问题，即在成功评论并收到“评论成功”的通知后，页面会自动跳转到帖子的5楼左右的位置。如果帖子有多层跟帖，这意味着用户必须手动滚动到他们刚刚评论的楼层才能继续阅读帖子内容。这种自动跳转不仅给用户带来了不便，还可能导致用户错过他们感兴趣的帖子内容，从而降低了用户体验。</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>帖子 进行 评论 特别 回复 高 楼层 帖子 遇到 成功 评论 收到 评论 成功 通知 页面 自动 跳转 帖子 楼 左右 位置 帖子 多层 跟帖 意味着 必须 手动 滚动 刚刚 评论 楼层 继续 阅读 帖子 内容 自动 跳转 带来 不便 错过 感兴趣 帖子 内容 降低</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>10010000009480</v>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="C123" t="n">
+        <v>5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4</v>
+      </c>
+      <c r="E123" t="inlineStr">
         <is>
           <t>这个bug描述了一个软件界面中的问题，其中用户在阅读有大量回复的帖子时遇到了不便。具体来说，当用户试图查看帖子的最新更新时，他们必须手动滚动到帖子的底部，而不能直接从当前位置看到最新的回复。这导致用户需要花费额外的时间和精力来获取最新的信息，尤其是在长帖子中。这种设计缺乏类似百度贴吧中的“倒序查看”功能，从而给用户带来了极大的不便。这种情况可能会导致用户感到不耐烦，并可能影响他们对软件的整体满意度和使用体验。</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>软件 界面 阅读 大量 回复 帖子 遇到 不便 具体来说 试图 查看 帖子 最新更新 必须 手动 滚动 帖子 底部 不能 当前 位置 看到 最新 回复 花费 额外 时间 精力 获取 最新 信息 尤其 长 帖子 设计 缺乏 类似 百度 贴 倒序 查看 带来 极大 不便 情况 感到 不耐烦 软件 整体 满意度</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>10010000009023</v>
+      </c>
+      <c r="B124" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="C124" t="n">
+        <v>3</v>
+      </c>
+      <c r="D124" t="n">
+        <v>5</v>
+      </c>
+      <c r="E124" t="inlineStr">
         <is>
           <t>在创建群公告后，用户开始编辑群公告。然而，当用户尝试查看或编辑时，他们只能看到群公告的内容，而看不到任何关于公告的创建时间或创建者的信息。这可能导致用户无法获取完整的信息，从而影响他们的使用体验。</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>创建 群 公告 编辑 群 公告 查看 编辑 只能 看到 群 公告 内容 看不到 公告 创建 时间 创建者 信息 无法 获取 完整 信息</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>10010000008773</v>
+      </c>
+      <c r="B125" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="C125" t="n">
+        <v>2</v>
+      </c>
+      <c r="D125" t="n">
+        <v>5</v>
+      </c>
+      <c r="E125" t="inlineStr">
         <is>
           <t>在输入输入法表情时，显示结果与预期不符。</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>输入 输入法 表情 预期 不符</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>10010000008405</v>
+      </c>
+      <c r="B126" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="C126" t="n">
+        <v>2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" t="inlineStr">
         <is>
           <t>聊天框输入的表情上限太低</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>聊天 框 输入 表情 上限 太低</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>10010000008444</v>
+      </c>
+      <c r="B127" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="C127" t="n">
+        <v>2</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4</v>
+      </c>
+      <c r="E127" t="inlineStr">
         <is>
           <t>表情在复制到聊天框后，无法正常显示，而是变为了一系列数字和符号。</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>表情 复制到 聊天 框后 无法 正常 变为 一系列 数字 符号</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>10010000008588</v>
+      </c>
+      <c r="B128" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="C128" t="n">
+        <v>2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>5</v>
+      </c>
+      <c r="E128" t="inlineStr">
         <is>
           <t>该表情在复制时未能正确显示其原始状态。</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>表情 复制 未能 正确 原始 状态</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>10010000009789</v>
+      </c>
+      <c r="B129" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="C129" t="n">
+        <v>3</v>
+      </c>
+      <c r="D129" t="n">
+        <v>5</v>
+      </c>
+      <c r="E129" t="inlineStr">
         <is>
           <t>在这张图片中，我们看到一个手机屏幕截图，显示了一个聊天界面。群公告被设置为激活码，但该公告的字体颜色和背景色相近，导致它在聊天界面中并不明显。用户可能会忽略这个公告，因为它与聊天内容的其他部分难以区分。</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>图片 看到 手机 屏幕 截图 聊天 界面 群 公告 设置 激活码 公告 字体 颜色 背景色 相近 聊天 界面 明显 忽略 公告 聊天 内容 部分 难以 区分</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>10010000008946</v>
+      </c>
+      <c r="B130" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="C130" t="n">
+        <v>3</v>
+      </c>
+      <c r="D130" t="n">
+        <v>5</v>
+      </c>
+      <c r="E130" t="inlineStr">
         <is>
           <t>群公告为表情无法被群成员看到</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>群 公告 表情 无法 群 成员 看到</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>10010000009575</v>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="C131" t="n">
+        <v>3</v>
+      </c>
+      <c r="D131" t="n">
+        <v>5</v>
+      </c>
+      <c r="E131" t="inlineStr">
         <is>
           <t>该软件在接收好友的语音聊天信息时出现了问题。用户无法听到任何语音内容，尽管语音消息已成功发送并且显示为已接收。这可能是由于软件内部的音频处理功能出现了故障，导致语音信息无法正确播放。</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>接收 好友 语音 聊天 信息 出现 无法 听到 语音 内容 语音 消息 成功 发送 接收 软件 内部 音频 处理 出现 故障 语音 信息 无法 正确 播放</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>10010000008306</v>
+      </c>
+      <c r="B132" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="C132" t="n">
+        <v>3</v>
+      </c>
+      <c r="D132" t="n">
+        <v>5</v>
+      </c>
+      <c r="E132" t="inlineStr">
         <is>
           <t>在群共享或好友共享的功能中，用户无法直接访问到存储设备中的文件，必须通过逐级浏览来查找所需文件。这种操作方式不仅消耗了大量的时间，还可能因为复杂的界面设计导致用户的使用体验下降。</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>群 共享 好友 共享 无法 访问 存储设备 文件 必须 逐级 浏览 查找 需 文件 方式 消耗 大量 时间 复杂 界面设计 下降</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>10010000008629</v>
+      </c>
+      <c r="B133" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="C133" t="n">
+        <v>3</v>
+      </c>
+      <c r="D133" t="n">
+        <v>5</v>
+      </c>
+      <c r="E133" t="inlineStr">
         <is>
           <t>动图不能预览，一点击就直接发送</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>动图 不能 预览 点击 发送</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>10010000009185</v>
+      </c>
+      <c r="B134" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="C134" t="n">
+        <v>3</v>
+      </c>
+      <c r="D134" t="n">
+        <v>5</v>
+      </c>
+      <c r="E134" t="inlineStr">
         <is>
           <t>不能创只有本人一个人的群，至少两人以上</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>不能 创 群 至少 两人</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>10010000008261</v>
+      </c>
+      <c r="B135" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>5</v>
+      </c>
+      <c r="E135" t="inlineStr">
         <is>
           <t>在软件测试过程中，发现一个与发送手写内容相关的bug。当用户点击发送手写内容时，系统显示“无发送内容”的提示。然而，在再次点击“发送”按钮后，内容成功发送并显示在与好友的聊天页面中。这个现象不符合预期，因为通常用户应该能直接看到他们正在尝试发送的内容。此bug可能导致用户感到困惑，因为他们无法直接预览他们要发送的内容。</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>软件测试 过程 发现 发送 手写 内容 相关 点击 发送 手写 内容 系统 发送 内容 提示 再次 点击 发送 按钮 内容 成功 发送 好友 聊天 页面 现象 符合 预期 通常 应该 看到 正在 发送 内容 感到 困惑 无法 预览 发送 内容</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>10010000008332</v>
+      </c>
+      <c r="B136" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="C136" t="n">
+        <v>4</v>
+      </c>
+      <c r="D136" t="n">
+        <v>5</v>
+      </c>
+      <c r="E136" t="inlineStr">
         <is>
           <t>在群聊界面发送图片时，系统相册中显示的图片数量与实际存在的照片数量不符。软件仅展示了部分照片，而实际上相册中存储了更多的图片。</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>群聊 界面 发送 图片 系统 相册 图片 数量 照片 数量 不符 软件 仅 展示 部分 照片 实际上 相册 存储 更 图片</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>10010000008668</v>
+      </c>
+      <c r="B137" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="C137" t="n">
+        <v>3</v>
+      </c>
+      <c r="D137" t="n">
+        <v>5</v>
+      </c>
+      <c r="E137" t="inlineStr">
         <is>
           <t>这个bug是在复制表情后，聊天框内显示为系统自带表情。从图片描述中可以看出，用户试图复制一组特定的表情到聊天框中，但结果却是系统自带的默认表情。这可能表明该应用在处理复制和粘贴功能时存在错误，导致无法正确显示用户选择的表情。</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>复制 表情 聊天 框内 系统 自带 表情 图片 看出 试图 复制 一组 特定 表情 聊天 框中 却是 系统 自带 默认 表情 表明 应用 处理 复制 粘贴 错误 无法 正确 选择 表情</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>10010000008787</v>
+      </c>
+      <c r="B138" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="C138" t="n">
+        <v>3</v>
+      </c>
+      <c r="D138" t="n">
+        <v>5</v>
+      </c>
+      <c r="E138" t="inlineStr">
         <is>
           <t>群里聊天时成员发语音，无法听到</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>群里 聊天 成员 发 语音 无法 听到</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>10010000008576</v>
+      </c>
+      <c r="B139" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="C139" t="n">
+        <v>3</v>
+      </c>
+      <c r="D139" t="n">
+        <v>5</v>
+      </c>
+      <c r="E139" t="inlineStr">
         <is>
           <t>动图不能长按预览，点击就直接发送</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>动图 不能 长 预览 点击 发送</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>10010000008637</v>
+      </c>
+      <c r="B140" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="C140" t="n">
+        <v>3</v>
+      </c>
+      <c r="D140" t="n">
+        <v>5</v>
+      </c>
+      <c r="E140" t="inlineStr">
         <is>
           <t>加入群组－＞进入群组聊天－＞在群组聊天框里键入搜狗输入法自带表情－＞点击发送－＞显示的表情与输入框表情不同  附截图 输入框与已发送的表情为同一表情 而显示结果不同
 附截图</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>加入 群组 － ＞ 进入 群组 聊天 － ＞ 群组 聊天 框里 键入 搜狗 输入法 自带 表情 － ＞ 点击 发送 － ＞ 表情 输入框 表情 不同     附 截图   输入框 发送 表情 同一 表情   不同 
  附 截图</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>10010000008965</v>
+      </c>
+      <c r="B141" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="C141" t="n">
+        <v>3</v>
+      </c>
+      <c r="D141" t="n">
+        <v>5</v>
+      </c>
+      <c r="E141" t="inlineStr">
         <is>
           <t>聊天记录表情与原表情不符
 加入群组－＞进入群组聊天－＞在群组聊天框里键入搜狗输入法自带表情－＞点击发送－＞显示的表情与群组设置－＞聊天记录里的同一表情显示不同
 附截图 截图中已圈出显示不相同的同一个表情</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>聊天记录 表情 原 表情 不符 
  加入 群组 － ＞ 进入 群组 聊天 － ＞ 群组 聊天 框里 键入 搜狗 输入法 自带 表情 － ＞ 点击 发送 － ＞ 表情 群组 设置 － ＞ 聊天记录 里 同一 表情 不同 
  附 截图   截图 圈 出 相同 同一个 表情</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>10010000009089</v>
+      </c>
+      <c r="B142" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="C142" t="n">
+        <v>3</v>
+      </c>
+      <c r="D142" t="n">
+        <v>5</v>
+      </c>
+      <c r="E142" t="inlineStr">
         <is>
           <t>该图像展示了一个手机应用界面，其中用户正在与某个群组进行聊天。在聊天记录中，用户尝试发送了一个表情符号，但显示的表情与他们选择的表情不符。具体来说，用户在输入栏选择了某种表情，但在聊天记录中展示的却是另一种完全不同的表情。这种不一致可能是由于应用内部的某些错误或设置导致的，导致消息发送时的表情处理出现了问题。</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>展示 手机 应用 界面 正在 群组 进行 聊天 聊天记录 发送 表情符号 表情 选择 表情 不符 具体来说 输入 栏 选择 某种 表情 聊天记录 展示 却是 一种 完全 不同 表情 一致 应用 内部 错误 设置 消息 发送 表情 处理 出现</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>10010000008667</v>
+      </c>
+      <c r="B143" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="C143" t="n">
+        <v>2</v>
+      </c>
+      <c r="D143" t="n">
+        <v>5</v>
+      </c>
+      <c r="E143" t="inlineStr">
         <is>
           <t>通过表情查找群聊名称，不能查找匹配到对应的表情，而是会出现许多不与查找表情相同的群聊</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>表情 查找 群聊 名称 不能 查找 匹配 对应 表情 出现 查找 表情 相同 群聊</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>10010000009345</v>
+      </c>
+      <c r="B144" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="C144" t="n">
+        <v>3</v>
+      </c>
+      <c r="D144" t="n">
+        <v>5</v>
+      </c>
+      <c r="E144" t="inlineStr">
         <is>
           <t>这个bug主要是关于用户体验的，因为它与我们用户所使用最多的微信QQ的聊天常理有一点相悖。一般我们发送图片，正在上传与发送成功图片都是在同一个地方的。而这里，用户在使用的过程中就会感到很别扭很不舒服。</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>最多 微信 QQ 聊天 常理 一点 相悖 发送 图片 正在 上传 发送 成功 图片 同一个 地方 过程 感到 别扭 舒服</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>10010000008796</v>
+      </c>
+      <c r="B145" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="C145" t="n">
+        <v>4</v>
+      </c>
+      <c r="D145" t="n">
+        <v>5</v>
+      </c>
+      <c r="E145" t="inlineStr">
         <is>
           <t>这个bug是在用户试图从系统相册发送图片时出现的。当用户打开相册并选择多张图片时，系统只显示了部分图片，而不是所有选定的图片。这可能会导致用户无法正确选择他们想要发送的图片，从而影响他们的使用体验。</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>试图 系统 相册 发送 图片 出现 打开 相册 选择 张 图片 系统 部分 图片 选定 图片 无法 正确 选择 想要 发送 图片</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>10010000009531</v>
+      </c>
+      <c r="B146" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="C146" t="n">
+        <v>4</v>
+      </c>
+      <c r="D146" t="n">
+        <v>5</v>
+      </c>
+      <c r="E146" t="inlineStr">
         <is>
           <t>该软件在发送表情时存在限制，用户只能输入最多四行的表情符号。当尝试输入更多行时，系统并未提供相应的功能或反馈，导致无法使用更多行来输入表情。</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>发送 表情 限制 只能 输入 四行 表情符号 输入 更 多行 系统 并未 提供 相应 反馈 无法 更 多行 输入 表情</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>10010000008880</v>
+      </c>
+      <c r="B147" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>5</v>
+      </c>
+      <c r="E147" t="inlineStr">
         <is>
           <t>这个bug是关于快捷回复功能的异常行为。当用户选择快捷回复内容并准备发送时，该内容没有先跳转到发送消息的文本框内供用户确认和修改，而是直接发送出去了。这违反了用户的期望，因为他们可能希望在发送前对快速回复的内容进行一些调整。</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>快捷 回复 异常 行为 选择 快捷 回复 内容 准备 发送 内容 没有 先 跳转 发送 消息 文本框 内供 确认 修改 发送 出去 违反 期望 希望 发送 前 快速 回复 内容 进行 调整</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>10010000009510</v>
+      </c>
+      <c r="B148" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="C148" t="n">
+        <v>2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>5</v>
+      </c>
+      <c r="E148" t="inlineStr">
         <is>
           <t>用户在进行聊天的时候发语音是语音的声音比较小。</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>进行 聊天 发 语音 语音 声音 比较</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>10010000009368</v>
+      </c>
+      <c r="B149" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="C149" t="n">
+        <v>2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>3</v>
+      </c>
+      <c r="E149" t="inlineStr">
         <is>
           <t>该应用程序在用户尝试发送声音消息时遇到了问题。具体来说，当用户调整他们想要发送的声音的大小时，应用程序似乎不能稳定地保持这个设置。声音的播放音量可能会突然增大或减小，导致用户体验不一致和困扰。这可能影响用户对应用程序的整体满意度和使用频率。</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>应用程序 发送 声音 消息 遇到 具体来说 调整 想要 发送 声音 小时 应用程序 不能 稳定 保持 设置 声音 播放 音量 突然 增大 减小 一致 困扰 应用程序 整体 满意度 频率</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>10010000009488</v>
+      </c>
+      <c r="B150" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="C150" t="n">
+        <v>3</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" t="inlineStr">
         <is>
           <t>在群聊页面，当用户尝试发送视频或需要下载文件时，如果使用的是数据流量而非WiFi环境，系统没有提供任何提示信息。这可能导致用户不知不觉中消耗大量流量，从而产生额外的费用。</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>群聊 页面 发送 视频 下载 文件 数据 流量 非 WiFi 环境 系统 没有 提供 提示信息 不知不觉 消耗 大量 流量 产生 额外 费用</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>10010000009498</v>
+      </c>
+      <c r="B151" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="C151" t="n">
+        <v>5</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5</v>
+      </c>
+      <c r="E151" t="inlineStr">
         <is>
           <t>在群聊页面中，当用户尝试发送视频或需要下载文件时，系统并未提供任何关于流量使用的提示。特别是在使用数据流量的情况下，这可能导致用户不知不觉地消耗了大量的流量，从而产生了额外的费用。此外，这种情况可能会对用户的体验造成负面影响，因为他们可能没有意识到正在消耗大量的数据。</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>群聊 页面 发送 视频 下载 文件 系统 并未 提供 流量 提示 特别 数据 流量 情况 不知不觉 消耗 大量 流量 产生 额外 费用 情况 造成 负面影响 没有 意识 正在 消耗 大量 数据</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>10010000009221</v>
+      </c>
+      <c r="B152" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="C152" t="n">
+        <v>2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>5</v>
+      </c>
+      <c r="E152" t="inlineStr">
         <is>
           <t>表情在文本框上的时候发送了变化。如果用户忘记了刚刚点击的是什么表情，而表情在文本框上也变得难以辨识。那么用户就要删除文本框上的表情进行重新选择。</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>表情 文本框 发送 变化 忘记 刚刚 点击 表情 表情 文本框 变得 难以 辨识 删除 文本框 表情 进行 重新 选择</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>10010000009950</v>
+      </c>
+      <c r="B153" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
+      <c r="C153" t="n">
+        <v>2</v>
+      </c>
+      <c r="D153" t="n">
+        <v>5</v>
+      </c>
+      <c r="E153" t="inlineStr">
         <is>
           <t>该软件在处理表情输入时存在缺陷。用户尝试发送一组表情，但在这些表情被完全输入并准备发送之前，它们已经出现在了历史表情记录中。这导致用户感觉体验不佳，且这个问题是必现的，虽然其严重程度较轻，但仍然对用户体验造成了负面影响。</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>处理 表情 输入 缺陷 发送 一组 表情 表情 完全 输入 准备 发送 之前 出现 历史 表情 记录 感觉 不佳 必现 严重 程度 轻 仍然 造成 负面影响</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>用户体验</t>
         </is>
       </c>
     </row>
